--- a/PL 23MH01000376 Tbilisi GE.xlsx
+++ b/PL 23MH01000376 Tbilisi GE.xlsx
@@ -1230,196 +1230,82 @@
       <c r="E19" s="30" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="31" t="inlineStr">
-        <is>
-          <t>ZB0033878</t>
-        </is>
-      </c>
+      <c r="A20" s="31" t="n"/>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>SM400520 Mini soccer ball 95066200 CN</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+          <t xml:space="preserve">
+€ 2 014,50 ZB0038040 pc255,00 7,9000 0 %35,70 SM500122 Men's red T-shirt 61091000 TR
+PRODUCTS
+€911,88 ZB0037987 pc149,00 6,1200 0 %20,86 SM500322 Men’s black T-shirt 61091000 BD
+€ 2 926,38 Total: 56,56
+Delivery Note: 23MH01000380 Of:05.04.2023 Order No.: Shipment Method: EXW
+Price Material No. Quantity Unit Price VAT % Net Weight Description HS CodeCountry
+of origin
+GOO</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="14" t="n"/>
       <c r="E20" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 ctn  20x40x50 cm </t>
+          <t xml:space="preserve">15 ctn  151x15x45 cm </t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="33" t="inlineStr">
-        <is>
-          <t>ZB0037262</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>SM400520 Mini soccer ball 95066200 CN</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A21" s="33" t="n"/>
+      <c r="B21" s="11" t="n"/>
+      <c r="C21" s="12" t="n"/>
+      <c r="D21" s="14" t="n"/>
       <c r="E21" s="32" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="33" t="inlineStr">
-        <is>
-          <t>ZB0039888</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>SM570423 Recycled beach towel</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A22" s="33" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="12" t="n"/>
+      <c r="D22" s="14" t="n"/>
       <c r="E22" s="32" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="33" t="inlineStr">
-        <is>
-          <t>ZB0037557</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>SM400422 Soccer ball 95066200 CN</t>
-        </is>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>500</v>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A23" s="33" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="12" t="n"/>
+      <c r="D23" s="14" t="n"/>
       <c r="E23" s="32" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="33" t="inlineStr">
-        <is>
-          <t>ZB0035348</t>
-        </is>
-      </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t>SM436221 Black sunglasses matt 90041091 CN</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="n">
-        <v>500</v>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A24" s="33" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="12" t="n"/>
+      <c r="D24" s="14" t="n"/>
       <c r="E24" s="32" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="33" t="inlineStr">
-        <is>
-          <t>ZB0034334</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>SM240220 Car charger - sustainable</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A25" s="33" t="n"/>
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="12" t="n"/>
+      <c r="D25" s="14" t="n"/>
       <c r="E25" s="32" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="33" t="inlineStr">
-        <is>
-          <t>ZB0038051</t>
-        </is>
-      </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t>SM431122 Metal keychain with</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="11" t="n"/>
+      <c r="C26" s="12" t="n"/>
+      <c r="D26" s="14" t="n"/>
       <c r="E26" s="32" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="33" t="inlineStr">
-        <is>
-          <t>ZB0040152</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>SM240123 TWS earbuds 85183000 CN</t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="11" t="n"/>
+      <c r="C27" s="12" t="n"/>
+      <c r="D27" s="14" t="n"/>
       <c r="E27" s="32" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="33" t="inlineStr">
-        <is>
-          <t>ZB0040153</t>
-        </is>
-      </c>
-      <c r="B28" s="11" t="inlineStr">
-        <is>
-          <t>SM250123 Powerbank 85044030 CN</t>
-        </is>
-      </c>
-      <c r="C28" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>pcs</t>
-        </is>
-      </c>
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="11" t="n"/>
+      <c r="C28" s="12" t="n"/>
+      <c r="D28" s="14" t="n"/>
       <c r="E28" s="32" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
@@ -1555,7 +1441,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 ctn</t>
+          <t>15 ctns</t>
         </is>
       </c>
       <c r="E45" s="8" t="n"/>
@@ -1576,7 +1462,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.04</v>
+        <v>1.528875</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/PL 23MH01000376 Tbilisi GE.xlsx
+++ b/PL 23MH01000376 Tbilisi GE.xlsx
@@ -1230,96 +1230,238 @@
       <c r="E19" s="30" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="31" t="n"/>
+      <c r="A20" s="31" t="inlineStr">
+        <is>
+          <t>ZB0033878</t>
+        </is>
+      </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-€ 2 014,50 ZB0038040 pc255,00 7,9000 0 %35,70 SM500122 Men's red T-shirt 61091000 TR
-PRODUCTS
-€911,88 ZB0037987 pc149,00 6,1200 0 %20,86 SM500322 Men’s black T-shirt 61091000 BD
-€ 2 926,38 Total: 56,56
-Delivery Note: 23MH01000380 Of:05.04.2023 Order No.: Shipment Method: EXW
-Price Material No. Quantity Unit Price VAT % Net Weight Description HS CodeCountry
-of origin
-GOO</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="14" t="n"/>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E20" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 ctn  151x15x45 cm </t>
+          <t xml:space="preserve">2 ctn  4x2x1 cm </t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="33" t="n"/>
-      <c r="B21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="14" t="n"/>
+      <c r="A21" s="33" t="inlineStr">
+        <is>
+          <t>ZB0037262</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E21" s="32" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="33" t="n"/>
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="14" t="n"/>
+      <c r="A22" s="33" t="inlineStr">
+        <is>
+          <t>ZB0039888</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E22" s="32" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="33" t="n"/>
-      <c r="B23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="14" t="n"/>
+      <c r="A23" s="33" t="inlineStr">
+        <is>
+          <t>ZB0037557</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E23" s="32" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="33" t="n"/>
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="14" t="n"/>
+      <c r="A24" s="33" t="inlineStr">
+        <is>
+          <t>ZB0035348</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C24" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E24" s="32" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="33" t="n"/>
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="14" t="n"/>
+      <c r="A25" s="33" t="inlineStr">
+        <is>
+          <t>ZB0034334</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E25" s="32" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="33" t="n"/>
-      <c r="B26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="14" t="n"/>
+      <c r="A26" s="33" t="inlineStr">
+        <is>
+          <t>ZB0038051</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E26" s="32" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="33" t="n"/>
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="14" t="n"/>
+      <c r="A27" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040152</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E27" s="32" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="33" t="n"/>
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="14" t="n"/>
+      <c r="A28" s="33" t="inlineStr">
+        <is>
+          <t>ZB0040153</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C28" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E28" s="32" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="33" t="n"/>
-      <c r="B29" s="11" t="n"/>
-      <c r="C29" s="12" t="n"/>
-      <c r="D29" s="14" t="n"/>
+      <c r="A29" s="33" t="inlineStr">
+        <is>
+          <t>ZB0038040</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>255</v>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E29" s="32" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="33" t="n"/>
-      <c r="B30" s="11" t="n"/>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="14" t="n"/>
+      <c r="A30" s="33" t="inlineStr">
+        <is>
+          <t>ZB0037987</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="inlineStr">
+        <is>
+          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+        </is>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>149</v>
+      </c>
+      <c r="D30" s="14" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
       <c r="E30" s="32" t="n"/>
     </row>
     <row r="31">
@@ -1441,7 +1583,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15 ctns</t>
+          <t>2 ctns</t>
         </is>
       </c>
       <c r="E45" s="8" t="n"/>
@@ -1462,7 +1604,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.528875</v>
+        <v>1.6e-05</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/PL 23MH01000376 Tbilisi GE.xlsx
+++ b/PL 23MH01000376 Tbilisi GE.xlsx
@@ -435,7 +435,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -660,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1237,7 +1234,7 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM400520 Mini soccer ball 95066200 CN</t>
         </is>
       </c>
       <c r="C20" s="12" t="n">
@@ -1248,11 +1245,7 @@
           <t>pcs</t>
         </is>
       </c>
-      <c r="E20" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 ctn  4x2x1 cm </t>
-        </is>
-      </c>
+      <c r="E20" s="32" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="33" t="inlineStr">
@@ -1262,7 +1255,7 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM395122 Aluminium Cup 76151010 CN</t>
         </is>
       </c>
       <c r="C21" s="12" t="n">
@@ -1283,7 +1276,7 @@
       </c>
       <c r="B22" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM570423 Recycled beach towel</t>
         </is>
       </c>
       <c r="C22" s="12" t="n">
@@ -1304,7 +1297,7 @@
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM400422 Soccer ball 95066200 CN</t>
         </is>
       </c>
       <c r="C23" s="12" t="n">
@@ -1325,7 +1318,7 @@
       </c>
       <c r="B24" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM436221 Black sunglasses matt 90041091 CN</t>
         </is>
       </c>
       <c r="C24" s="12" t="n">
@@ -1346,7 +1339,7 @@
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM240220 Car charger - sustainable</t>
         </is>
       </c>
       <c r="C25" s="12" t="n">
@@ -1367,7 +1360,7 @@
       </c>
       <c r="B26" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM431122 Metal keychain with</t>
         </is>
       </c>
       <c r="C26" s="12" t="n">
@@ -1388,7 +1381,7 @@
       </c>
       <c r="B27" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM240123 TWS earbuds 85183000 CN</t>
         </is>
       </c>
       <c r="C27" s="12" t="n">
@@ -1409,7 +1402,7 @@
       </c>
       <c r="B28" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM250123 Powerbank 85044030 CN</t>
         </is>
       </c>
       <c r="C28" s="12" t="n">
@@ -1430,7 +1423,7 @@
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM500122 Men's red T-shirt 61091000 TR</t>
         </is>
       </c>
       <c r="C29" s="12" t="n">
@@ -1451,7 +1444,7 @@
       </c>
       <c r="B30" s="11" t="inlineStr">
         <is>
-          <t>Reg. number of Document  230300682 , to Order no . 23MPVY0100000044INVOICE 230300682</t>
+          <t>SM500322 Men’s black T-shirt 61091000 BD</t>
         </is>
       </c>
       <c r="C30" s="13" t="n">
@@ -1581,11 +1574,6 @@
           <t xml:space="preserve">Quantity and Kind of Packages: </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2 ctns</t>
-        </is>
-      </c>
       <c r="E45" s="8" t="n"/>
     </row>
     <row r="46">
@@ -1598,19 +1586,7 @@
       <c r="E46" s="8" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="89" t="inlineStr">
-        <is>
-          <t>Total cbm:</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1.6e-05</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>cbm</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="n"/>
     </row>
     <row r="48" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="49" ht="13.5" customHeight="1" thickBot="1">
